--- a/UnitOps/BR_all_data_copy.xlsx
+++ b/UnitOps/BR_all_data_copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Documents\Python Scripts\CBE\UnitOps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Documents\Python Scripts\CBE\CBE\UnitOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233E12B1-5411-4D84-AC30-20F711AC2183}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9DBF2-5AE3-464E-A3EA-164ABE77E876}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D770C720-2859-4E1E-8A69-264879DCE44D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D770C720-2859-4E1E-8A69-264879DCE44D}"/>
   </bookViews>
   <sheets>
     <sheet name="flask1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,7 +112,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116F5A46-06D0-4726-942C-B4B56F1CFA31}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -798,7 +798,7 @@
         <v>0.53400000000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1042,7 +1042,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F3CAC-F8AC-4A9A-8A9F-A8C755873AE4}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,8 +1342,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f>12.5/0.05</f>
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
